--- a/biology/Médecine/Pandémie_de_Covid-19_en_Estonie/Pandémie_de_Covid-19_en_Estonie.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_en_Estonie/Pandémie_de_Covid-19_en_Estonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Estonie</t>
+          <t>Pandémie_de_Covid-19_en_Estonie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Estonie démarre officiellement le 27 février 2020. À la date du 29 août 2022, le bilan est de 2 647 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Estonie</t>
+          <t>Pandémie_de_Covid-19_en_Estonie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 en Estonie débute dans sa capitale Tallinn le 27 février 2020 quand le premier cas de Covid-19 est recensé.
 Le 11 mars 2020, 15 personnes sont diagnostiquées avec le coronavirus, toutes avaient été infectés à l'extérieur du pays, principalement dans le nord de l'Italie.
 Le 12 mars au soir, le gouvernement d'Estonie déclare l'état d'urgence jusqu'au 1er mai 2020. En conséquence, toutes les écoles et universités sont fermées et tous les rassemblements publics interdits, y compris les événements sportifs et culturels. Il annonce la fermeture des frontières aux étrangers et aux non-résidents à partir du 17 mars.
-Au 20 avril 2020, l'Estonie compte 1 535 cas confirmé et 40 morts[3], elle est le 57e pays le plus touché au monde en nombre de cas confirmé et 61e pays le plus touché au monde en nombre de morts[4].
+Au 20 avril 2020, l'Estonie compte 1 535 cas confirmé et 40 morts, elle est le 57e pays le plus touché au monde en nombre de cas confirmé et 61e pays le plus touché au monde en nombre de morts.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Estonie</t>
+          <t>Pandémie_de_Covid-19_en_Estonie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Mesures prises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les mesures annoncées sont les suivantes[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les mesures annoncées sont les suivantes :
 Une distance minimale de deux mètres doit être maintenue entre les individus dans tous les lieux publics tels que les espaces de jeu et de sport, les plages, sentiers de promenade et de randonnée, mais aussi à l’intérieur, à l’exception du domicile des personnes où cela ne peut être vérifié. Ces mesures s’appliquent également aux bars et aux restaurants.
 Des groupes de deux personnes maximum sont autorisés dans les espaces publics. Cette restriction ne s’applique pas aux familles résidant sous le même toit ou à leurs déplacements, ni aux agents des services publics. Cela s’applique également aux bars et restaurants.
 Les centres commerciaux seront fermés à partir du 27 mars, à l’exception des magasins alimentaires, pharmacies, boutiques de télécommunications, banques, services postaux, distributeurs automatiques et les commerces de vente ou de location d’équipements médicaux autorisés. Les lieux de restauration des centres commerciaux sont uniquement autorisés à effectuer de la vente à emporter.
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Estonie</t>
+          <t>Pandémie_de_Covid-19_en_Estonie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,6 +608,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
